--- a/数据/images.xlsx
+++ b/数据/images.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17475" windowHeight="12375"/>
+    <workbookView windowWidth="19620" windowHeight="9150"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1230,7 +1230,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1241,9 +1241,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1784,9 +1781,9 @@
   <dimension ref="A1:P56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C48" sqref="C48"/>
+      <selection pane="bottomLeft" activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3185,22 +3182,22 @@
       <c r="E37" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F37" s="4" t="s">
+      <c r="F37" s="1" t="s">
         <v>136</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="H37" s="5" t="s">
+      <c r="H37" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="I37" s="5" t="s">
+      <c r="I37" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="J37" s="5" t="s">
+      <c r="J37" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="K37" s="5" t="s">
+      <c r="K37" s="4" t="s">
         <v>141</v>
       </c>
     </row>
@@ -3220,22 +3217,22 @@
       <c r="E38" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F38" s="4" t="s">
+      <c r="F38" s="1" t="s">
         <v>142</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="H38" s="5" t="s">
+      <c r="H38" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="I38" s="5" t="s">
+      <c r="I38" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="J38" s="5" t="s">
+      <c r="J38" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="K38" s="5" t="s">
+      <c r="K38" s="4" t="s">
         <v>141</v>
       </c>
     </row>
@@ -3255,22 +3252,22 @@
       <c r="E39" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F39" s="4" t="s">
+      <c r="F39" s="1" t="s">
         <v>144</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="H39" s="5" t="s">
+      <c r="H39" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="I39" s="5" t="s">
+      <c r="I39" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="J39" s="5" t="s">
+      <c r="J39" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="K39" s="5" t="s">
+      <c r="K39" s="4" t="s">
         <v>141</v>
       </c>
     </row>
@@ -3290,22 +3287,22 @@
       <c r="E40" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F40" s="4" t="s">
+      <c r="F40" s="1" t="s">
         <v>146</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="H40" s="5" t="s">
+      <c r="H40" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="I40" s="5" t="s">
+      <c r="I40" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="J40" s="5" t="s">
+      <c r="J40" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="K40" s="5" t="s">
+      <c r="K40" s="4" t="s">
         <v>151</v>
       </c>
     </row>
@@ -3325,22 +3322,22 @@
       <c r="E41" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F41" s="4" t="s">
+      <c r="F41" s="1" t="s">
         <v>152</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="H41" s="5" t="s">
+      <c r="H41" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="I41" s="5" t="s">
+      <c r="I41" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="J41" s="5" t="s">
+      <c r="J41" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="K41" s="5" t="s">
+      <c r="K41" s="4" t="s">
         <v>151</v>
       </c>
     </row>
@@ -3360,22 +3357,22 @@
       <c r="E42" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F42" s="4" t="s">
+      <c r="F42" s="1" t="s">
         <v>154</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="H42" s="5" t="s">
+      <c r="H42" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="I42" s="5" t="s">
+      <c r="I42" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="J42" s="5" t="s">
+      <c r="J42" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="K42" s="5" t="s">
+      <c r="K42" s="4" t="s">
         <v>151</v>
       </c>
     </row>
@@ -3395,22 +3392,22 @@
       <c r="E43" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F43" s="4" t="s">
+      <c r="F43" s="1" t="s">
         <v>156</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="H43" s="5" t="s">
+      <c r="H43" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="I43" s="5" t="s">
+      <c r="I43" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="J43" s="5" t="s">
+      <c r="J43" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="K43" s="5" t="s">
+      <c r="K43" s="4" t="s">
         <v>151</v>
       </c>
     </row>
@@ -3430,22 +3427,22 @@
       <c r="E44" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F44" s="4" t="s">
+      <c r="F44" s="1" t="s">
         <v>158</v>
       </c>
       <c r="G44" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="H44" s="5" t="s">
+      <c r="H44" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="I44" s="5" t="s">
+      <c r="I44" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="J44" s="5" t="s">
+      <c r="J44" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="K44" s="5" t="s">
+      <c r="K44" s="4" t="s">
         <v>151</v>
       </c>
     </row>
@@ -3465,22 +3462,22 @@
       <c r="E45" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F45" s="4" t="s">
+      <c r="F45" s="1" t="s">
         <v>160</v>
       </c>
       <c r="G45" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="H45" s="5" t="s">
+      <c r="H45" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="I45" s="5" t="s">
+      <c r="I45" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="J45" s="5" t="s">
+      <c r="J45" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="K45" s="5" t="s">
+      <c r="K45" s="4" t="s">
         <v>151</v>
       </c>
     </row>
@@ -3500,22 +3497,22 @@
       <c r="E46" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F46" s="4" t="s">
+      <c r="F46" s="1" t="s">
         <v>162</v>
       </c>
       <c r="G46" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="H46" s="5" t="s">
+      <c r="H46" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="I46" s="5" t="s">
+      <c r="I46" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="J46" s="5" t="s">
+      <c r="J46" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="K46" s="5" t="s">
+      <c r="K46" s="4" t="s">
         <v>151</v>
       </c>
     </row>
@@ -3535,22 +3532,22 @@
       <c r="E47" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F47" s="4" t="s">
+      <c r="F47" s="1" t="s">
         <v>164</v>
       </c>
       <c r="G47" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="H47" s="5" t="s">
+      <c r="H47" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="I47" s="5" t="s">
+      <c r="I47" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="J47" s="5" t="s">
+      <c r="J47" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="K47" s="5" t="s">
+      <c r="K47" s="4" t="s">
         <v>151</v>
       </c>
     </row>
@@ -3570,22 +3567,22 @@
       <c r="E48" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F48" s="4" t="s">
+      <c r="F48" s="1" t="s">
         <v>166</v>
       </c>
       <c r="G48" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="H48" s="5" t="s">
+      <c r="H48" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="I48" s="5" t="s">
+      <c r="I48" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="J48" s="5" t="s">
+      <c r="J48" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="K48" s="5" t="s">
+      <c r="K48" s="4" t="s">
         <v>151</v>
       </c>
     </row>
@@ -3611,16 +3608,16 @@
       <c r="G49" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="H49" s="5" t="s">
+      <c r="H49" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="I49" s="5" t="s">
+      <c r="I49" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="J49" s="5" t="s">
+      <c r="J49" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="K49" s="5" t="s">
+      <c r="K49" s="4" t="s">
         <v>173</v>
       </c>
     </row>
@@ -3646,16 +3643,16 @@
       <c r="G50" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="H50" s="5" t="s">
+      <c r="H50" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="I50" s="5" t="s">
+      <c r="I50" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="J50" s="5" t="s">
+      <c r="J50" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="K50" s="5" t="s">
+      <c r="K50" s="4" t="s">
         <v>173</v>
       </c>
     </row>
@@ -3681,16 +3678,16 @@
       <c r="G51" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="H51" s="5" t="s">
+      <c r="H51" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="I51" s="5" t="s">
+      <c r="I51" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="J51" s="5" t="s">
+      <c r="J51" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="K51" s="5" t="s">
+      <c r="K51" s="4" t="s">
         <v>173</v>
       </c>
     </row>
@@ -3716,16 +3713,16 @@
       <c r="G52" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="H52" s="5" t="s">
+      <c r="H52" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="I52" s="5" t="s">
+      <c r="I52" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="J52" s="5" t="s">
+      <c r="J52" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="K52" s="5" t="s">
+      <c r="K52" s="4" t="s">
         <v>183</v>
       </c>
     </row>
@@ -3751,16 +3748,16 @@
       <c r="G53" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="H53" s="5" t="s">
+      <c r="H53" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="I53" s="5" t="s">
+      <c r="I53" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="J53" s="5" t="s">
+      <c r="J53" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="K53" s="5" t="s">
+      <c r="K53" s="4" t="s">
         <v>183</v>
       </c>
     </row>
@@ -3786,16 +3783,16 @@
       <c r="G54" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="H54" s="5" t="s">
+      <c r="H54" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="I54" s="5" t="s">
+      <c r="I54" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="J54" s="5" t="s">
+      <c r="J54" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="K54" s="5" t="s">
+      <c r="K54" s="4" t="s">
         <v>183</v>
       </c>
     </row>
@@ -3815,22 +3812,22 @@
       <c r="E55" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F55" s="4" t="s">
+      <c r="F55" s="1" t="s">
         <v>188</v>
       </c>
       <c r="G55" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="H55" s="5" t="s">
+      <c r="H55" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="I55" s="5" t="s">
+      <c r="I55" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="J55" s="5" t="s">
+      <c r="J55" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="K55" s="5" t="s">
+      <c r="K55" s="4" t="s">
         <v>193</v>
       </c>
     </row>
@@ -3850,22 +3847,22 @@
       <c r="E56" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F56" s="4" t="s">
+      <c r="F56" s="1" t="s">
         <v>194</v>
       </c>
       <c r="G56" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="H56" s="5" t="s">
+      <c r="H56" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="I56" s="5" t="s">
+      <c r="I56" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="J56" s="5" t="s">
+      <c r="J56" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="K56" s="5" t="s">
+      <c r="K56" s="4" t="s">
         <v>193</v>
       </c>
     </row>

--- a/数据/images.xlsx
+++ b/数据/images.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="65">
   <si>
     <t>id</t>
   </si>
@@ -71,256 +71,157 @@
     <t>img_path7</t>
   </si>
   <si>
-    <t>Half Dark Red Half Gold</t>
-  </si>
-  <si>
-    <t>FZ638-1</t>
-  </si>
-  <si>
-    <t>\\Desktop-inv4qoc\图片数据\整理图库\FZ\风格4\FZ638\SKU\不带数量\FZ638-1.jpg</t>
-  </si>
-  <si>
-    <t>\\Desktop-inv4qoc\图片数据\整理图库\FZ\风格4\FZ638\1.jpg</t>
-  </si>
-  <si>
-    <t>\\Desktop-inv4qoc\图片数据\整理图库\FZ\风格4\FZ638\2.jpg</t>
-  </si>
-  <si>
-    <t>\\Desktop-inv4qoc\图片数据\整理图库\FZ\风格4\FZ638\3.jpg</t>
-  </si>
-  <si>
-    <t>\\Desktop-inv4qoc\图片数据\整理图库\FZ\风格4\FZ638\4.jpg</t>
-  </si>
-  <si>
-    <t>\\Desktop-inv4qoc\图片数据\整理图库\FZ\风格4\FZ638\买家秀.jpg</t>
-  </si>
-  <si>
-    <t>\\Desktop-inv4qoc\图片数据\整理图库\FZ\风格4\FZ638\尺寸图.jpg</t>
-  </si>
-  <si>
-    <t>Deep Blue AB</t>
-  </si>
-  <si>
-    <t>FZ638-10</t>
-  </si>
-  <si>
-    <t>\\Desktop-inv4qoc\图片数据\整理图库\FZ\风格4\FZ638\SKU\不带数量\FZ638-10.jpg</t>
-  </si>
-  <si>
-    <t>Ivory Porcelain Gloss</t>
-  </si>
-  <si>
-    <t>FZ638-11</t>
-  </si>
-  <si>
-    <t>\\Desktop-inv4qoc\图片数据\整理图库\FZ\风格4\FZ638\SKU\不带数量\FZ638-11.jpg</t>
-  </si>
-  <si>
-    <t>Gray AB</t>
-  </si>
-  <si>
-    <t>FZ638-12</t>
-  </si>
-  <si>
-    <t>\\Desktop-inv4qoc\图片数据\整理图库\FZ\风格4\FZ638\SKU\不带数量\FZ638-12.jpg</t>
-  </si>
-  <si>
-    <t>Tea Crystal</t>
-  </si>
-  <si>
-    <t>FZ638-13</t>
-  </si>
-  <si>
-    <t>\\Desktop-inv4qoc\图片数据\整理图库\FZ\风格4\FZ638\SKU\不带数量\FZ638-13.jpg</t>
-  </si>
-  <si>
-    <t>Amber</t>
-  </si>
-  <si>
-    <t>FZ638-14</t>
-  </si>
-  <si>
-    <t>\\Desktop-inv4qoc\图片数据\整理图库\FZ\风格4\FZ638\SKU\不带数量\FZ638-14.jpg</t>
-  </si>
-  <si>
-    <t>Jade Half Amber</t>
-  </si>
-  <si>
-    <t>FZ638-15</t>
-  </si>
-  <si>
-    <t>\\Desktop-inv4qoc\图片数据\整理图库\FZ\风格4\FZ638\SKU\不带数量\FZ638-15.jpg</t>
-  </si>
-  <si>
-    <t>Jade Half Green Gloss</t>
-  </si>
-  <si>
-    <t>FZ638-17</t>
-  </si>
-  <si>
-    <t>\\Desktop-inv4qoc\图片数据\整理图库\FZ\风格4\FZ638\SKU\不带数量\FZ638-17.jpg</t>
-  </si>
-  <si>
-    <t>Half Gray Half Blue</t>
-  </si>
-  <si>
-    <t>FZ638-18</t>
-  </si>
-  <si>
-    <t>\\Desktop-inv4qoc\图片数据\整理图库\FZ\风格4\FZ638\SKU\不带数量\FZ638-18.jpg</t>
-  </si>
-  <si>
-    <t>Jade</t>
-  </si>
-  <si>
-    <t>FZ638-19</t>
-  </si>
-  <si>
-    <t>\\Desktop-inv4qoc\图片数据\整理图库\FZ\风格4\FZ638\SKU\不带数量\FZ638-19.jpg</t>
-  </si>
-  <si>
-    <t>Porcelain Red Half Silver</t>
-  </si>
-  <si>
-    <t>FZ638-2</t>
-  </si>
-  <si>
-    <t>\\Desktop-inv4qoc\图片数据\整理图库\FZ\风格4\FZ638\SKU\不带数量\FZ638-2.jpg</t>
-  </si>
-  <si>
-    <t>Ink Blue AB</t>
-  </si>
-  <si>
-    <t>FZ638-20</t>
-  </si>
-  <si>
-    <t>\\Desktop-inv4qoc\图片数据\整理图库\FZ\风格4\FZ638\SKU\不带数量\FZ638-20.jpg</t>
-  </si>
-  <si>
-    <t>White Jade Amber</t>
-  </si>
-  <si>
-    <t>FZ638-21</t>
-  </si>
-  <si>
-    <t>\\Desktop-inv4qoc\图片数据\整理图库\FZ\风格4\FZ638\SKU\不带数量\FZ638-21.jpg</t>
-  </si>
-  <si>
-    <t>Jade Amber</t>
-  </si>
-  <si>
-    <t>FZ638-22</t>
-  </si>
-  <si>
-    <t>\\Desktop-inv4qoc\图片数据\整理图库\FZ\风格4\FZ638\SKU\不带数量\FZ638-22.jpg</t>
-  </si>
-  <si>
-    <t>Half Gold Half Gray</t>
-  </si>
-  <si>
-    <t>FZ638-23</t>
-  </si>
-  <si>
-    <t>\\Desktop-inv4qoc\图片数据\整理图库\FZ\风格4\FZ638\SKU\不带数量\FZ638-23.jpg</t>
-  </si>
-  <si>
-    <t>Antique Bronze Gloss</t>
-  </si>
-  <si>
-    <t>FZ638-24</t>
-  </si>
-  <si>
-    <t>\\Desktop-inv4qoc\图片数据\整理图库\FZ\风格4\FZ638\SKU\不带数量\FZ638-24.jpg</t>
-  </si>
-  <si>
-    <t>Half Black Half Silver</t>
-  </si>
-  <si>
-    <t>FZ638-25</t>
-  </si>
-  <si>
-    <t>\\Desktop-inv4qoc\图片数据\整理图库\FZ\风格4\FZ638\SKU\不带数量\FZ638-25.jpg</t>
-  </si>
-  <si>
-    <t>Half Gray Half Silver</t>
-  </si>
-  <si>
-    <t>FZ638-26</t>
-  </si>
-  <si>
-    <t>\\Desktop-inv4qoc\图片数据\整理图库\FZ\风格4\FZ638\SKU\不带数量\FZ638-26.jpg</t>
-  </si>
-  <si>
-    <t>Silver</t>
-  </si>
-  <si>
-    <t>FZ638-27</t>
-  </si>
-  <si>
-    <t>\\Desktop-inv4qoc\图片数据\整理图库\FZ\风格4\FZ638\SKU\不带数量\FZ638-27.jpg</t>
-  </si>
-  <si>
-    <t>Black Glossy Green</t>
-  </si>
-  <si>
-    <t>FZ638-3</t>
-  </si>
-  <si>
-    <t>\\Desktop-inv4qoc\图片数据\整理图库\FZ\风格4\FZ638\SKU\不带数量\FZ638-3.jpg</t>
-  </si>
-  <si>
-    <t>Gold</t>
-  </si>
-  <si>
-    <t>FZ638-4</t>
-  </si>
-  <si>
-    <t>\\Desktop-inv4qoc\图片数据\整理图库\FZ\风格4\FZ638\SKU\不带数量\FZ638-4.jpg</t>
-  </si>
-  <si>
-    <t>Black Silver</t>
-  </si>
-  <si>
-    <t>FZ638-5</t>
-  </si>
-  <si>
-    <t>\\Desktop-inv4qoc\图片数据\整理图库\FZ\风格4\FZ638\SKU\不带数量\FZ638-5.jpg</t>
-  </si>
-  <si>
-    <t>Half Black Translucent Purple</t>
-  </si>
-  <si>
-    <t>FZ638-6</t>
-  </si>
-  <si>
-    <t>\\Desktop-inv4qoc\图片数据\整理图库\FZ\风格4\FZ638\SKU\不带数量\FZ638-6.jpg</t>
-  </si>
-  <si>
-    <t>Orange Red Porcelain Gloss</t>
-  </si>
-  <si>
-    <t>FZ638-7</t>
-  </si>
-  <si>
-    <t>\\Desktop-inv4qoc\图片数据\整理图库\FZ\风格4\FZ638\SKU\不带数量\FZ638-7.jpg</t>
-  </si>
-  <si>
-    <t>Light Blue Gray AB</t>
-  </si>
-  <si>
-    <t>FZ638-8</t>
-  </si>
-  <si>
-    <t>\\Desktop-inv4qoc\图片数据\整理图库\FZ\风格4\FZ638\SKU\不带数量\FZ638-8.jpg</t>
-  </si>
-  <si>
-    <t>White Jade AB</t>
-  </si>
-  <si>
-    <t>FZ638-9</t>
-  </si>
-  <si>
-    <t>\\Desktop-inv4qoc\图片数据\整理图库\FZ\风格4\FZ638\SKU\不带数量\FZ638-9.jpg</t>
+    <t>img_path8</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Mixed</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>MT206-0</t>
+  </si>
+  <si>
+    <t>\\Desktop-inv4qoc\图片数据\整理图库\MT-木头\风格1\合集-MT206-207\sku\不带数量\12mm\MT206-0.jpg</t>
+  </si>
+  <si>
+    <t>\\Desktop-inv4qoc\图片数据\整理图库\MT-木头\风格1\合集-MT206-207\1.jpg</t>
+  </si>
+  <si>
+    <t>\\Desktop-inv4qoc\图片数据\整理图库\MT-木头\风格1\合集-MT206-207\2.jpg</t>
+  </si>
+  <si>
+    <t>\\Desktop-inv4qoc\图片数据\整理图库\MT-木头\风格1\合集-MT206-207\3.jpg</t>
+  </si>
+  <si>
+    <t>\\Desktop-inv4qoc\图片数据\整理图库\MT-木头\风格1\合集-MT206-207\4.jpg</t>
+  </si>
+  <si>
+    <t>\\Desktop-inv4qoc\图片数据\整理图库\MT-木头\风格1\合集-MT206-207\尺寸图.jpg</t>
+  </si>
+  <si>
+    <t>Brown</t>
+  </si>
+  <si>
+    <t>MT206-1</t>
+  </si>
+  <si>
+    <t>\\Desktop-inv4qoc\图片数据\整理图库\MT-木头\风格1\合集-MT206-207\sku\不带数量\12mm\MT206-1.jpg</t>
+  </si>
+  <si>
+    <t>Black</t>
+  </si>
+  <si>
+    <t>MT206-2</t>
+  </si>
+  <si>
+    <t>\\Desktop-inv4qoc\图片数据\整理图库\MT-木头\风格1\合集-MT206-207\sku\不带数量\12mm\MT206-2.jpg</t>
+  </si>
+  <si>
+    <t>Dark brown</t>
+  </si>
+  <si>
+    <t>MT206-3</t>
+  </si>
+  <si>
+    <t>\\Desktop-inv4qoc\图片数据\整理图库\MT-木头\风格1\合集-MT206-207\sku\不带数量\12mm\MT206-3.jpg</t>
+  </si>
+  <si>
+    <t>White</t>
+  </si>
+  <si>
+    <t>MT206-4</t>
+  </si>
+  <si>
+    <t>\\Desktop-inv4qoc\图片数据\整理图库\MT-木头\风格1\合集-MT206-207\sku\不带数量\12mm\MT206-4.jpg</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>MT207-0</t>
+  </si>
+  <si>
+    <t>\\Desktop-inv4qoc\图片数据\整理图库\MT-木头\风格1\合集-MT206-207\sku\不带数量\17mm\MT207-0.jpg</t>
+  </si>
+  <si>
+    <t>MT207-1</t>
+  </si>
+  <si>
+    <t>\\Desktop-inv4qoc\图片数据\整理图库\MT-木头\风格1\合集-MT206-207\sku\不带数量\17mm\MT207-1.jpg</t>
+  </si>
+  <si>
+    <t>MT207-2</t>
+  </si>
+  <si>
+    <t>\\Desktop-inv4qoc\图片数据\整理图库\MT-木头\风格1\合集-MT206-207\sku\不带数量\17mm\MT207-2.jpg</t>
+  </si>
+  <si>
+    <t>MT207-3</t>
+  </si>
+  <si>
+    <t>\\Desktop-inv4qoc\图片数据\整理图库\MT-木头\风格1\合集-MT206-207\sku\不带数量\17mm\MT207-3.jpg</t>
+  </si>
+  <si>
+    <t>MT207-4</t>
+  </si>
+  <si>
+    <t>\\Desktop-inv4qoc\图片数据\整理图库\MT-木头\风格1\合集-MT206-207\sku\不带数量\17mm\MT207-4.jpg</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>Wooden</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>MT011-25MM-10PCS</t>
+  </si>
+  <si>
+    <t>\\Desktop-inv4qoc\图片数据\整理图库\MT-木头\风格8\MT011-合并链接\SKU\带数量\MT011-25mm-10pcs.jpg</t>
+  </si>
+  <si>
+    <t>\\Desktop-inv4qoc\图片数据\整理图库\MT-木头\风格8\MT011-合并链接\01.jpg</t>
+  </si>
+  <si>
+    <t>\\Desktop-inv4qoc\图片数据\整理图库\MT-木头\风格8\MT011-合并链接\02.jpg</t>
+  </si>
+  <si>
+    <t>\\Desktop-inv4qoc\图片数据\整理图库\MT-木头\风格8\MT011-合并链接\03.jpg</t>
+  </si>
+  <si>
+    <t>\\Desktop-inv4qoc\图片数据\整理图库\MT-木头\风格8\MT011-合并链接\04.jpg</t>
+  </si>
+  <si>
+    <t>\\Desktop-inv4qoc\图片数据\整理图库\MT-木头\风格8\MT011-合并链接\05.jpg</t>
+  </si>
+  <si>
+    <t>\\Desktop-inv4qoc\图片数据\整理图库\MT-木头\风格8\MT011-合并链接\白底图.jpg</t>
+  </si>
+  <si>
+    <t>\\Desktop-inv4qoc\图片数据\整理图库\MT-木头\风格8\MT011-合并链接\尺寸图.jpg</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>MT011-30MM-6PCS</t>
+  </si>
+  <si>
+    <t>\\Desktop-inv4qoc\图片数据\整理图库\MT-木头\风格8\MT011-合并链接\SKU\带数量\MT011-30mm-6pcs.jpg</t>
   </si>
 </sst>
 </file>
@@ -964,12 +865,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1022,15 +922,6 @@
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1325,15 +1216,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N27"/>
+  <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1376,421 +1267,397 @@
       <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:13">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
         <v>10001</v>
       </c>
-      <c r="C2" s="2">
-        <v>4</v>
-      </c>
-      <c r="D2" s="2">
-        <v>2</v>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="2">
-        <v>110</v>
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="J2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="K2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="L2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:13">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
         <v>10001</v>
       </c>
-      <c r="C3" s="2">
-        <v>4</v>
-      </c>
-      <c r="D3" s="2">
-        <v>2</v>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
       </c>
       <c r="E3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="2">
-        <v>110</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="L3" t="s">
         <v>24</v>
       </c>
-      <c r="H3" t="s">
+      <c r="M3" t="s">
         <v>25</v>
       </c>
-      <c r="I3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K3" t="s">
-        <v>19</v>
-      </c>
-      <c r="L3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M3" t="s">
-        <v>21</v>
-      </c>
-      <c r="N3" t="s">
-        <v>22</v>
-      </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:13">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
         <v>10001</v>
       </c>
-      <c r="C4" s="2">
-        <v>4</v>
-      </c>
-      <c r="D4" s="2">
-        <v>2</v>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="2">
-        <v>110</v>
+        <v>29</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I4" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="J4" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="K4" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="L4" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M4" t="s">
-        <v>21</v>
-      </c>
-      <c r="N4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:13">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
         <v>10001</v>
       </c>
-      <c r="C5" s="2">
-        <v>4</v>
-      </c>
-      <c r="D5" s="2">
-        <v>2</v>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
       </c>
       <c r="E5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" s="2">
-        <v>110</v>
+        <v>32</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
       </c>
       <c r="G5" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H5" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I5" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="J5" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="K5" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="L5" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M5" t="s">
-        <v>21</v>
-      </c>
-      <c r="N5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:13">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
         <v>10001</v>
       </c>
-      <c r="C6" s="2">
-        <v>4</v>
-      </c>
-      <c r="D6" s="2">
-        <v>2</v>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
       </c>
       <c r="E6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" s="2">
-        <v>110</v>
+        <v>35</v>
+      </c>
+      <c r="F6" t="s">
+        <v>18</v>
       </c>
       <c r="G6" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H6" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I6" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="J6" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="K6" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="L6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:13">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
         <v>10001</v>
       </c>
-      <c r="C7" s="2">
-        <v>4</v>
-      </c>
-      <c r="D7" s="2">
-        <v>2</v>
+      <c r="C7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" t="s">
+        <v>16</v>
       </c>
       <c r="E7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" s="2">
-        <v>110</v>
+        <v>17</v>
+      </c>
+      <c r="F7" t="s">
+        <v>39</v>
       </c>
       <c r="G7" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H7" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="I7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="J7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="K7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="L7" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M7" t="s">
-        <v>21</v>
-      </c>
-      <c r="N7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:13">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
         <v>10001</v>
       </c>
-      <c r="C8" s="2">
-        <v>4</v>
-      </c>
-      <c r="D8" s="2">
-        <v>2</v>
+      <c r="C8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
       </c>
       <c r="E8" t="s">
-        <v>38</v>
-      </c>
-      <c r="F8" s="2">
-        <v>110</v>
+        <v>26</v>
+      </c>
+      <c r="F8" t="s">
+        <v>39</v>
       </c>
       <c r="G8" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H8" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I8" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="J8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="K8" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="L8" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M8" t="s">
-        <v>21</v>
-      </c>
-      <c r="N8" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:13">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
         <v>10001</v>
       </c>
-      <c r="C9" s="2">
-        <v>4</v>
-      </c>
-      <c r="D9" s="2">
-        <v>2</v>
+      <c r="C9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" t="s">
+        <v>16</v>
       </c>
       <c r="E9" t="s">
-        <v>41</v>
-      </c>
-      <c r="F9" s="2">
-        <v>110</v>
+        <v>29</v>
+      </c>
+      <c r="F9" t="s">
+        <v>39</v>
       </c>
       <c r="G9" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H9" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I9" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="J9" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="K9" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="L9" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M9" t="s">
-        <v>21</v>
-      </c>
-      <c r="N9" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:13">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
         <v>10001</v>
       </c>
-      <c r="C10" s="2">
-        <v>4</v>
-      </c>
-      <c r="D10" s="2">
-        <v>2</v>
+      <c r="C10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" t="s">
+        <v>16</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
-      </c>
-      <c r="F10" s="2">
-        <v>110</v>
+        <v>32</v>
+      </c>
+      <c r="F10" t="s">
+        <v>39</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="J10" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="K10" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="L10" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M10" t="s">
-        <v>21</v>
-      </c>
-      <c r="N10" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:13">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
         <v>10001</v>
       </c>
-      <c r="C11" s="2">
-        <v>4</v>
-      </c>
-      <c r="D11" s="2">
-        <v>2</v>
+      <c r="C11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" t="s">
+        <v>16</v>
       </c>
       <c r="E11" t="s">
-        <v>47</v>
-      </c>
-      <c r="F11" s="2">
-        <v>110</v>
+        <v>35</v>
+      </c>
+      <c r="F11" t="s">
+        <v>39</v>
       </c>
       <c r="G11" t="s">
         <v>48</v>
@@ -1799,732 +1666,116 @@
         <v>49</v>
       </c>
       <c r="I11" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="J11" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="K11" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="L11" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M11" t="s">
-        <v>21</v>
-      </c>
-      <c r="N11" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:15">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12">
-        <v>10001</v>
-      </c>
-      <c r="C12" s="2">
-        <v>4</v>
-      </c>
-      <c r="D12" s="2">
-        <v>2</v>
+        <v>10002</v>
+      </c>
+      <c r="C12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" t="s">
+        <v>16</v>
       </c>
       <c r="E12" t="s">
-        <v>50</v>
-      </c>
-      <c r="F12" s="2">
-        <v>110</v>
+        <v>51</v>
+      </c>
+      <c r="F12" t="s">
+        <v>52</v>
       </c>
       <c r="G12" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H12" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I12" t="s">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="J12" t="s">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="K12" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="L12" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="M12" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="N12" t="s">
-        <v>22</v>
+        <v>60</v>
+      </c>
+      <c r="O12" t="s">
+        <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:15">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13">
-        <v>10001</v>
-      </c>
-      <c r="C13" s="2">
-        <v>4</v>
-      </c>
-      <c r="D13" s="2">
-        <v>2</v>
+        <v>10002</v>
+      </c>
+      <c r="C13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" t="s">
+        <v>16</v>
       </c>
       <c r="E13" t="s">
-        <v>53</v>
-      </c>
-      <c r="F13" s="2">
-        <v>110</v>
+        <v>51</v>
+      </c>
+      <c r="F13" t="s">
+        <v>62</v>
       </c>
       <c r="G13" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="H13" t="s">
+        <v>64</v>
+      </c>
+      <c r="I13" t="s">
         <v>55</v>
       </c>
-      <c r="I13" t="s">
-        <v>17</v>
-      </c>
       <c r="J13" t="s">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="K13" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="L13" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="M13" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="N13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <v>10001</v>
-      </c>
-      <c r="C14" s="2">
-        <v>4</v>
-      </c>
-      <c r="D14" s="2">
-        <v>2</v>
-      </c>
-      <c r="E14" t="s">
-        <v>56</v>
-      </c>
-      <c r="F14" s="2">
-        <v>110</v>
-      </c>
-      <c r="G14" t="s">
-        <v>57</v>
-      </c>
-      <c r="H14" t="s">
-        <v>58</v>
-      </c>
-      <c r="I14" t="s">
-        <v>17</v>
-      </c>
-      <c r="J14" t="s">
-        <v>18</v>
-      </c>
-      <c r="K14" t="s">
-        <v>19</v>
-      </c>
-      <c r="L14" t="s">
-        <v>20</v>
-      </c>
-      <c r="M14" t="s">
-        <v>21</v>
-      </c>
-      <c r="N14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15">
-        <v>10001</v>
-      </c>
-      <c r="C15" s="2">
-        <v>4</v>
-      </c>
-      <c r="D15" s="2">
-        <v>2</v>
-      </c>
-      <c r="E15" t="s">
-        <v>59</v>
-      </c>
-      <c r="F15" s="2">
-        <v>110</v>
-      </c>
-      <c r="G15" t="s">
         <v>60</v>
       </c>
-      <c r="H15" t="s">
+      <c r="O13" t="s">
         <v>61</v>
-      </c>
-      <c r="I15" t="s">
-        <v>17</v>
-      </c>
-      <c r="J15" t="s">
-        <v>18</v>
-      </c>
-      <c r="K15" t="s">
-        <v>19</v>
-      </c>
-      <c r="L15" t="s">
-        <v>20</v>
-      </c>
-      <c r="M15" t="s">
-        <v>21</v>
-      </c>
-      <c r="N15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>10001</v>
-      </c>
-      <c r="C16" s="2">
-        <v>4</v>
-      </c>
-      <c r="D16" s="2">
-        <v>2</v>
-      </c>
-      <c r="E16" t="s">
-        <v>62</v>
-      </c>
-      <c r="F16" s="2">
-        <v>110</v>
-      </c>
-      <c r="G16" t="s">
-        <v>63</v>
-      </c>
-      <c r="H16" t="s">
-        <v>64</v>
-      </c>
-      <c r="I16" t="s">
-        <v>17</v>
-      </c>
-      <c r="J16" t="s">
-        <v>18</v>
-      </c>
-      <c r="K16" t="s">
-        <v>19</v>
-      </c>
-      <c r="L16" t="s">
-        <v>20</v>
-      </c>
-      <c r="M16" t="s">
-        <v>21</v>
-      </c>
-      <c r="N16" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <v>10001</v>
-      </c>
-      <c r="C17" s="2">
-        <v>4</v>
-      </c>
-      <c r="D17" s="2">
-        <v>2</v>
-      </c>
-      <c r="E17" t="s">
-        <v>65</v>
-      </c>
-      <c r="F17" s="2">
-        <v>110</v>
-      </c>
-      <c r="G17" t="s">
-        <v>66</v>
-      </c>
-      <c r="H17" t="s">
-        <v>67</v>
-      </c>
-      <c r="I17" t="s">
-        <v>17</v>
-      </c>
-      <c r="J17" t="s">
-        <v>18</v>
-      </c>
-      <c r="K17" t="s">
-        <v>19</v>
-      </c>
-      <c r="L17" t="s">
-        <v>20</v>
-      </c>
-      <c r="M17" t="s">
-        <v>21</v>
-      </c>
-      <c r="N17" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18">
-        <v>10001</v>
-      </c>
-      <c r="C18" s="2">
-        <v>4</v>
-      </c>
-      <c r="D18" s="2">
-        <v>2</v>
-      </c>
-      <c r="E18" t="s">
-        <v>68</v>
-      </c>
-      <c r="F18" s="2">
-        <v>110</v>
-      </c>
-      <c r="G18" t="s">
-        <v>69</v>
-      </c>
-      <c r="H18" t="s">
-        <v>70</v>
-      </c>
-      <c r="I18" t="s">
-        <v>17</v>
-      </c>
-      <c r="J18" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" t="s">
-        <v>19</v>
-      </c>
-      <c r="L18" t="s">
-        <v>20</v>
-      </c>
-      <c r="M18" t="s">
-        <v>21</v>
-      </c>
-      <c r="N18" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19">
-        <v>10001</v>
-      </c>
-      <c r="C19" s="2">
-        <v>4</v>
-      </c>
-      <c r="D19" s="2">
-        <v>2</v>
-      </c>
-      <c r="E19" t="s">
-        <v>71</v>
-      </c>
-      <c r="F19" s="2">
-        <v>110</v>
-      </c>
-      <c r="G19" t="s">
-        <v>72</v>
-      </c>
-      <c r="H19" t="s">
-        <v>73</v>
-      </c>
-      <c r="I19" t="s">
-        <v>17</v>
-      </c>
-      <c r="J19" t="s">
-        <v>18</v>
-      </c>
-      <c r="K19" t="s">
-        <v>19</v>
-      </c>
-      <c r="L19" t="s">
-        <v>20</v>
-      </c>
-      <c r="M19" t="s">
-        <v>21</v>
-      </c>
-      <c r="N19" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20">
-        <v>10001</v>
-      </c>
-      <c r="C20" s="2">
-        <v>4</v>
-      </c>
-      <c r="D20" s="2">
-        <v>2</v>
-      </c>
-      <c r="E20" t="s">
-        <v>74</v>
-      </c>
-      <c r="F20" s="2">
-        <v>110</v>
-      </c>
-      <c r="G20" t="s">
-        <v>75</v>
-      </c>
-      <c r="H20" t="s">
-        <v>76</v>
-      </c>
-      <c r="I20" t="s">
-        <v>17</v>
-      </c>
-      <c r="J20" t="s">
-        <v>18</v>
-      </c>
-      <c r="K20" t="s">
-        <v>19</v>
-      </c>
-      <c r="L20" t="s">
-        <v>20</v>
-      </c>
-      <c r="M20" t="s">
-        <v>21</v>
-      </c>
-      <c r="N20" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21">
-        <v>10001</v>
-      </c>
-      <c r="C21" s="2">
-        <v>4</v>
-      </c>
-      <c r="D21" s="2">
-        <v>2</v>
-      </c>
-      <c r="E21" t="s">
-        <v>77</v>
-      </c>
-      <c r="F21" s="2">
-        <v>110</v>
-      </c>
-      <c r="G21" t="s">
-        <v>78</v>
-      </c>
-      <c r="H21" t="s">
-        <v>79</v>
-      </c>
-      <c r="I21" t="s">
-        <v>17</v>
-      </c>
-      <c r="J21" t="s">
-        <v>18</v>
-      </c>
-      <c r="K21" t="s">
-        <v>19</v>
-      </c>
-      <c r="L21" t="s">
-        <v>20</v>
-      </c>
-      <c r="M21" t="s">
-        <v>21</v>
-      </c>
-      <c r="N21" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22">
-        <v>10001</v>
-      </c>
-      <c r="C22" s="2">
-        <v>4</v>
-      </c>
-      <c r="D22" s="2">
-        <v>2</v>
-      </c>
-      <c r="E22" t="s">
-        <v>80</v>
-      </c>
-      <c r="F22" s="2">
-        <v>110</v>
-      </c>
-      <c r="G22" t="s">
-        <v>81</v>
-      </c>
-      <c r="H22" t="s">
-        <v>82</v>
-      </c>
-      <c r="I22" t="s">
-        <v>17</v>
-      </c>
-      <c r="J22" t="s">
-        <v>18</v>
-      </c>
-      <c r="K22" t="s">
-        <v>19</v>
-      </c>
-      <c r="L22" t="s">
-        <v>20</v>
-      </c>
-      <c r="M22" t="s">
-        <v>21</v>
-      </c>
-      <c r="N22" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23">
-        <v>10001</v>
-      </c>
-      <c r="C23" s="2">
-        <v>4</v>
-      </c>
-      <c r="D23" s="2">
-        <v>2</v>
-      </c>
-      <c r="E23" t="s">
-        <v>83</v>
-      </c>
-      <c r="F23" s="2">
-        <v>110</v>
-      </c>
-      <c r="G23" t="s">
-        <v>84</v>
-      </c>
-      <c r="H23" t="s">
-        <v>85</v>
-      </c>
-      <c r="I23" t="s">
-        <v>17</v>
-      </c>
-      <c r="J23" t="s">
-        <v>18</v>
-      </c>
-      <c r="K23" t="s">
-        <v>19</v>
-      </c>
-      <c r="L23" t="s">
-        <v>20</v>
-      </c>
-      <c r="M23" t="s">
-        <v>21</v>
-      </c>
-      <c r="N23" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24">
-        <v>10001</v>
-      </c>
-      <c r="C24" s="2">
-        <v>4</v>
-      </c>
-      <c r="D24" s="2">
-        <v>2</v>
-      </c>
-      <c r="E24" t="s">
-        <v>86</v>
-      </c>
-      <c r="F24" s="2">
-        <v>110</v>
-      </c>
-      <c r="G24" t="s">
-        <v>87</v>
-      </c>
-      <c r="H24" t="s">
-        <v>88</v>
-      </c>
-      <c r="I24" t="s">
-        <v>17</v>
-      </c>
-      <c r="J24" t="s">
-        <v>18</v>
-      </c>
-      <c r="K24" t="s">
-        <v>19</v>
-      </c>
-      <c r="L24" t="s">
-        <v>20</v>
-      </c>
-      <c r="M24" t="s">
-        <v>21</v>
-      </c>
-      <c r="N24" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25">
-        <v>10001</v>
-      </c>
-      <c r="C25" s="2">
-        <v>4</v>
-      </c>
-      <c r="D25" s="2">
-        <v>2</v>
-      </c>
-      <c r="E25" t="s">
-        <v>89</v>
-      </c>
-      <c r="F25" s="2">
-        <v>110</v>
-      </c>
-      <c r="G25" t="s">
-        <v>90</v>
-      </c>
-      <c r="H25" t="s">
-        <v>91</v>
-      </c>
-      <c r="I25" t="s">
-        <v>17</v>
-      </c>
-      <c r="J25" t="s">
-        <v>18</v>
-      </c>
-      <c r="K25" t="s">
-        <v>19</v>
-      </c>
-      <c r="L25" t="s">
-        <v>20</v>
-      </c>
-      <c r="M25" t="s">
-        <v>21</v>
-      </c>
-      <c r="N25" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="B26">
-        <v>10001</v>
-      </c>
-      <c r="C26" s="2">
-        <v>4</v>
-      </c>
-      <c r="D26" s="2">
-        <v>2</v>
-      </c>
-      <c r="E26" t="s">
-        <v>92</v>
-      </c>
-      <c r="F26" s="2">
-        <v>110</v>
-      </c>
-      <c r="G26" t="s">
-        <v>93</v>
-      </c>
-      <c r="H26" t="s">
-        <v>94</v>
-      </c>
-      <c r="I26" t="s">
-        <v>17</v>
-      </c>
-      <c r="J26" t="s">
-        <v>18</v>
-      </c>
-      <c r="K26" t="s">
-        <v>19</v>
-      </c>
-      <c r="L26" t="s">
-        <v>20</v>
-      </c>
-      <c r="M26" t="s">
-        <v>21</v>
-      </c>
-      <c r="N26" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14">
-      <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="B27">
-        <v>10001</v>
-      </c>
-      <c r="C27" s="2">
-        <v>4</v>
-      </c>
-      <c r="D27" s="2">
-        <v>2</v>
-      </c>
-      <c r="E27" t="s">
-        <v>95</v>
-      </c>
-      <c r="F27" s="2">
-        <v>110</v>
-      </c>
-      <c r="G27" t="s">
-        <v>96</v>
-      </c>
-      <c r="H27" t="s">
-        <v>97</v>
-      </c>
-      <c r="I27" t="s">
-        <v>17</v>
-      </c>
-      <c r="J27" t="s">
-        <v>18</v>
-      </c>
-      <c r="K27" t="s">
-        <v>19</v>
-      </c>
-      <c r="L27" t="s">
-        <v>20</v>
-      </c>
-      <c r="M27" t="s">
-        <v>21</v>
-      </c>
-      <c r="N27" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E$1:E$1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
